--- a/medicine/Enfance/Marguerite_de_Lubert/Marguerite_de_Lubert.xlsx
+++ b/medicine/Enfance/Marguerite_de_Lubert/Marguerite_de_Lubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marguerite ou plus vraisemblablement Marie-Madeleine de Lubert[1] (17 décembre 1702, Paris - 20 août 1785, Argentan)[2] est une femme de lettres française. Elle a principalement écrit des contes merveilleux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marguerite ou plus vraisemblablement Marie-Madeleine de Lubert (17 décembre 1702, Paris - 20 août 1785, Argentan) est une femme de lettres française. Elle a principalement écrit des contes merveilleux.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa vie est peu connue. Elle est la fille de Louis de Lubert, président de la troisième chambre des Enquêtes du Parlement, musicien amateur (violon) et fondateur le 10 janvier 1722 d'un des premiers orchestres amateurs parisiens, l'Académie des Mélophilètes.
 Elle correspond avec Voltaire, qui lui adresse des vers (« À Mademoiselle de Lubert, qu'on appelait muse et grâce » (1732) ; « À Mademoiselle de Lubert »).
@@ -543,7 +557,9 @@
           <t>Romans et contes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sec et noir, ou la Princesse des fleurs et le prince des autruches, conte, avec un Discours préliminaire, qui contient l'apologie des contes de fées, 1743
 La Princesse Camion, 1743
